--- a/Abhiram_Sample_TestCasesCreation.xlsx
+++ b/Abhiram_Sample_TestCasesCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MA1PEPF0000AC93\EXCELCNV\827de788-b7e0-41d8-a206-a33cb77bd1e7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCBA697-1167-4B7C-99E0-754E23D5CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16E460C-BF4C-44B9-AB93-8429B27DC8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{90B941C3-5BAA-42D7-B1AC-A5F8179E0490}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="278">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -299,6 +299,206 @@
     <t>Browser: Chrome
 url: www.abc.com
 age: 100</t>
+  </si>
+  <si>
+    <t>Question - 2</t>
+  </si>
+  <si>
+    <t>Examination Passing Marks</t>
+  </si>
+  <si>
+    <t>The student portal should be available</t>
+  </si>
+  <si>
+    <t>Verify student marks</t>
+  </si>
+  <si>
+    <t>1. Open The Browser
+2. Navigate to the URL 
+3. Click on Register button
+4. Enter the marks
+5. Click on Submit button</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.exam.com
+Marks : 60</t>
+  </si>
+  <si>
+    <t>It should display "pass" message</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.exam.com
+Marks : 45</t>
+  </si>
+  <si>
+    <t>It should display "fail" message</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.exam.com
+Marks : 88</t>
+  </si>
+  <si>
+    <t>Question -3</t>
+  </si>
+  <si>
+    <t>Driver-on-hire salary</t>
+  </si>
+  <si>
+    <t>The Driver Salary page should be available</t>
+  </si>
+  <si>
+    <t>Verify salary for driver</t>
+  </si>
+  <si>
+    <t>1. Open the browser
+2. Navigate to the URL
+3. Enter driver details
+4. Enter driver age
+5. Click on calcluate salary button</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.driverpay.com
+Age: 25</t>
+  </si>
+  <si>
+    <t>It should display salary Rs. 15000</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.driverpay.com
+Age: 40</t>
+  </si>
+  <si>
+    <t>It should display salary Rs. 16500</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.driverpay.com
+Age: 65</t>
+  </si>
+  <si>
+    <t>It should display salary Rs. 15750</t>
+  </si>
+  <si>
+    <t>Question - 4</t>
+  </si>
+  <si>
+    <t>Winter Sale eligibility</t>
+  </si>
+  <si>
+    <t>The Winter Sale page should be available</t>
+  </si>
+  <si>
+    <t>Verify Age For Winter Sale</t>
+  </si>
+  <si>
+    <t>1. Open the Browser
+2. Navigate to the URL
+3. Enter customer age
+4. Click on Check Eligibility button</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.wintersale.com
+Age: 7</t>
+  </si>
+  <si>
+    <t>It should display "Eligible for discount"</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.wintersale.com
+Age: 40</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.wintersale.com
+Age: 65</t>
+  </si>
+  <si>
+    <t>Question - 5</t>
+  </si>
+  <si>
+    <t>Printer Cartridge Order</t>
+  </si>
+  <si>
+    <t>The Order Page should be available</t>
+  </si>
+  <si>
+    <t>Verify order quantity</t>
+  </si>
+  <si>
+    <t>1. Open the Browser
+2. Navigate to the URL
+3. Enter order details
+4. Enter quantity
+5. Click on Submit button</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.printers.com
+Quantity: 4</t>
+  </si>
+  <si>
+    <t>It should display "Minimum order is 5"</t>
+  </si>
+  <si>
+    <t>Browser: Chrome
+URL: www.printers.com
+Quantity: 8</t>
+  </si>
+  <si>
+    <t>It should proceed without discount</t>
+  </si>
+  <si>
+    <t>It should apply 20% discount</t>
+  </si>
+  <si>
+    <t>Question - 6</t>
+  </si>
+  <si>
+    <t>Bonus based on service</t>
+  </si>
+  <si>
+    <t>The Bonus Calculation page should be available</t>
+  </si>
+  <si>
+    <t>Verify bonus service</t>
+  </si>
+  <si>
+    <t>1. Open The Browser
+2. Navigate to the URL 
+3. Click on Register button
+4. Enter service years
+5. Click on Calculate Bonus button</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.companybonus.com
+Service years : 1</t>
+  </si>
+  <si>
+    <t>It should display  Bonus 0%</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.companybonus.com
+Service years : 3</t>
+  </si>
+  <si>
+    <t>It should display Bonus 10%</t>
+  </si>
+  <si>
+    <t>Browser : Chrome
+url : www.companybonus.com
+Service years : 12</t>
+  </si>
+  <si>
+    <t>It should display Bonus 35%</t>
   </si>
   <si>
     <t>The website is up and running.
@@ -1586,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,9 +1998,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1845,77 +2042,95 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,24 +2143,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2686,11 +2889,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="45" customFormat="1" ht="23.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="2:4" s="46" customFormat="1" ht="15.75">
       <c r="C5" s="49" t="s">
@@ -2701,19 +2904,19 @@
       <c r="B7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="2:4" ht="17.25" customHeight="1">
       <c r="B9" s="51"/>
@@ -2777,7 +2980,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2788,7 +2991,7 @@
       <c r="C18" s="57">
         <v>1</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2810,11 +3013,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEF8C85-8216-42E2-BB20-AE4FA7AE9A6A}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -2826,8 +3029,8 @@
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="29.140625" customWidth="1"/>
@@ -2837,45 +3040,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="29" t="s">
         <v>21</v>
       </c>
@@ -2917,24 +3120,24 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="77"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="29"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="108"/>
+      <c r="E4" s="103"/>
       <c r="F4" s="67"/>
       <c r="G4" s="64"/>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="101.25" customHeight="1">
       <c r="A5" s="31"/>
@@ -3132,9 +3335,11 @@
       <c r="M11" s="25"/>
       <c r="N11" s="61"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="13.5">
       <c r="A12" s="31"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
@@ -3148,15 +3353,29 @@
       <c r="M12" s="25"/>
       <c r="N12" s="61"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="67.5">
       <c r="A13" s="31"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="24"/>
       <c r="K13" s="26"/>
@@ -3164,15 +3383,29 @@
       <c r="M13" s="25"/>
       <c r="N13" s="61"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="67.5">
       <c r="A14" s="31"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="24"/>
       <c r="K14" s="26"/>
@@ -3180,15 +3413,29 @@
       <c r="M14" s="25"/>
       <c r="N14" s="61"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="67.5">
       <c r="A15" s="31"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="24"/>
       <c r="K15" s="26"/>
@@ -3212,9 +3459,11 @@
       <c r="M16" s="39"/>
       <c r="N16" s="28"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="13.5">
       <c r="A17" s="31"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
@@ -3228,53 +3477,95 @@
       <c r="M17" s="25"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="67.5">
       <c r="A18" s="31"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="B18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="24"/>
       <c r="K18" s="26"/>
       <c r="L18" s="24"/>
       <c r="M18" s="39"/>
-      <c r="N18" s="78"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="77"/>
+    </row>
+    <row r="19" spans="1:14" ht="67.5">
       <c r="A19" s="31"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="B19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="24"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
-      <c r="N19" s="78"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="77"/>
+    </row>
+    <row r="20" spans="1:14" ht="67.5">
       <c r="A20" s="31"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="B20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="24"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
-      <c r="N20" s="78"/>
+      <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="31"/>
@@ -3290,11 +3581,13 @@
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
-      <c r="N21" s="78"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="77"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5">
       <c r="A22" s="31"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
@@ -3306,55 +3599,97 @@
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
-      <c r="N22" s="78"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22" s="77"/>
+    </row>
+    <row r="23" spans="1:14" ht="79.5" customHeight="1">
       <c r="A23" s="31"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="B23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="I23" s="26"/>
       <c r="J23" s="24"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
-      <c r="N23" s="78"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="N23" s="77"/>
+    </row>
+    <row r="24" spans="1:14" ht="53.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="B24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="I24" s="26"/>
       <c r="J24" s="24"/>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
-      <c r="N24" s="78"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="77"/>
+    </row>
+    <row r="25" spans="1:14" ht="53.25">
       <c r="A25" s="31"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="I25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="31"/>
@@ -3370,11 +3705,13 @@
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
-      <c r="N26" s="78"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26" s="77"/>
+    </row>
+    <row r="27" spans="1:14" ht="13.5">
       <c r="A27" s="31"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26"/>
@@ -3386,55 +3723,97 @@
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
-      <c r="N27" s="78"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="77"/>
+    </row>
+    <row r="28" spans="1:14" ht="67.5">
       <c r="A28" s="31"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="B28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="129" t="s">
+        <v>95</v>
+      </c>
       <c r="I28" s="26"/>
       <c r="J28" s="24"/>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
-      <c r="N28" s="78"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" s="77"/>
+    </row>
+    <row r="29" spans="1:14" ht="67.5">
       <c r="A29" s="31"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="B29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="129" t="s">
+        <v>97</v>
+      </c>
       <c r="I29" s="26"/>
       <c r="J29" s="24"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="N29" s="78"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" s="77"/>
+    </row>
+    <row r="30" spans="1:14" ht="67.5">
       <c r="A30" s="31"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="B30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>98</v>
+      </c>
       <c r="I30" s="26"/>
       <c r="J30" s="24"/>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
-      <c r="N30" s="78"/>
+      <c r="N30" s="77"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="31"/>
@@ -3450,11 +3829,13 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
-      <c r="N31" s="78"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31" s="77"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.5">
       <c r="A32" s="31"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
@@ -3466,57 +3847,99 @@
       <c r="K32" s="39"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
-      <c r="N32" s="78"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="N32" s="77"/>
+    </row>
+    <row r="33" spans="1:14" ht="67.5">
       <c r="A33" s="31"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="B33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="I33" s="26"/>
       <c r="J33" s="24"/>
       <c r="K33" s="26"/>
       <c r="L33" s="24"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="78"/>
-    </row>
-    <row r="34" spans="1:14" hidden="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="63"/>
-    </row>
-    <row r="35" spans="1:14" hidden="1">
+      <c r="N33" s="77"/>
+    </row>
+    <row r="34" spans="1:14" ht="67.5">
+      <c r="A34" s="31"/>
+      <c r="B34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="77"/>
+    </row>
+    <row r="35" spans="1:14" ht="67.5">
       <c r="A35" s="31"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="B35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="I35" s="26"/>
       <c r="J35" s="24"/>
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="78"/>
-    </row>
-    <row r="36" spans="1:14" hidden="1">
+      <c r="N35" s="77"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="31"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -3530,9 +3953,9 @@
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="78"/>
-    </row>
-    <row r="37" spans="1:14" hidden="1">
+      <c r="N36" s="77"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="31"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
@@ -3546,9 +3969,9 @@
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="78"/>
-    </row>
-    <row r="38" spans="1:14" hidden="1">
+      <c r="N37" s="77"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="31"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -3562,9 +3985,9 @@
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="78"/>
-    </row>
-    <row r="39" spans="1:14" hidden="1">
+      <c r="N38" s="77"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="31"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -3578,9 +4001,9 @@
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="78"/>
-    </row>
-    <row r="40" spans="1:14" hidden="1">
+      <c r="N39" s="77"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="31"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
@@ -3594,9 +4017,9 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="78"/>
-    </row>
-    <row r="41" spans="1:14" hidden="1">
+      <c r="N40" s="77"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="31"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
@@ -3610,9 +4033,9 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="N41" s="78"/>
-    </row>
-    <row r="42" spans="1:14" hidden="1">
+      <c r="N41" s="77"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="31"/>
       <c r="B42" s="23"/>
       <c r="C42" s="24"/>
@@ -3626,9 +4049,9 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="N42" s="78"/>
-    </row>
-    <row r="43" spans="1:14" hidden="1">
+      <c r="N42" s="77"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="31"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -3642,9 +4065,9 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="78"/>
-    </row>
-    <row r="44" spans="1:14" hidden="1">
+      <c r="N43" s="77"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="31"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -3658,9 +4081,9 @@
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
-      <c r="N44" s="78"/>
-    </row>
-    <row r="45" spans="1:14" hidden="1">
+      <c r="N44" s="77"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="31"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -3674,9 +4097,9 @@
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="78"/>
-    </row>
-    <row r="46" spans="1:14" hidden="1">
+      <c r="N45" s="77"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="31"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -3690,9 +4113,9 @@
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
-      <c r="N46" s="78"/>
-    </row>
-    <row r="47" spans="1:14" hidden="1">
+      <c r="N46" s="77"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="31"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -3706,9 +4129,9 @@
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
-      <c r="N47" s="78"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1">
+      <c r="N47" s="77"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="31"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
@@ -3722,9 +4145,9 @@
       <c r="K48" s="40"/>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
-      <c r="N48" s="78"/>
-    </row>
-    <row r="49" spans="1:14" hidden="1">
+      <c r="N48" s="77"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="31"/>
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
@@ -3738,9 +4161,9 @@
       <c r="K49" s="40"/>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
-      <c r="N49" s="78"/>
-    </row>
-    <row r="50" spans="1:14" hidden="1">
+      <c r="N49" s="77"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="31"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -3754,9 +4177,9 @@
       <c r="K50" s="40"/>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
-      <c r="N50" s="78"/>
-    </row>
-    <row r="51" spans="1:14" hidden="1">
+      <c r="N50" s="77"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="31"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
@@ -3767,12 +4190,12 @@
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="78"/>
-    </row>
-    <row r="52" spans="1:14" hidden="1">
+      <c r="K51" s="26"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="77"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="31"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
@@ -3784,11 +4207,11 @@
       <c r="I52" s="26"/>
       <c r="J52" s="24"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="24"/>
+      <c r="L52" s="41"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="78"/>
-    </row>
-    <row r="53" spans="1:14" hidden="1">
+      <c r="N52" s="77"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="31"/>
       <c r="B53" s="23"/>
       <c r="C53" s="24"/>
@@ -3802,9 +4225,9 @@
       <c r="K53" s="26"/>
       <c r="L53" s="41"/>
       <c r="M53" s="25"/>
-      <c r="N53" s="78"/>
-    </row>
-    <row r="54" spans="1:14" hidden="1">
+      <c r="N53" s="77"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="31"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24"/>
@@ -3818,57 +4241,57 @@
       <c r="K54" s="26"/>
       <c r="L54" s="41"/>
       <c r="M54" s="25"/>
-      <c r="N54" s="78"/>
-    </row>
-    <row r="55" spans="1:14" hidden="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="78"/>
-    </row>
-    <row r="56" spans="1:14" hidden="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="63"/>
-    </row>
-    <row r="57" spans="1:14" hidden="1">
+      <c r="N54" s="77"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="33"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="63"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="31"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="77"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="31"/>
       <c r="B57" s="23"/>
       <c r="C57" s="24"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="35"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
       <c r="J57" s="24"/>
-      <c r="K57" s="37"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
-      <c r="N57" s="78"/>
-    </row>
-    <row r="58" spans="1:14" hidden="1">
+      <c r="N57" s="77"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="31"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -3879,12 +4302,12 @@
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
       <c r="J58" s="24"/>
-      <c r="K58" s="36"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="39"/>
       <c r="M58" s="39"/>
-      <c r="N58" s="78"/>
-    </row>
-    <row r="59" spans="1:14" hidden="1">
+      <c r="N58" s="77"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="31"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
@@ -3898,25 +4321,25 @@
       <c r="K59" s="37"/>
       <c r="L59" s="39"/>
       <c r="M59" s="39"/>
-      <c r="N59" s="78"/>
-    </row>
-    <row r="60" spans="1:14" hidden="1">
+      <c r="N59" s="77"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="31"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="36"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="24"/>
       <c r="K60" s="37"/>
       <c r="L60" s="39"/>
       <c r="M60" s="39"/>
-      <c r="N60" s="78"/>
-    </row>
-    <row r="61" spans="1:14" hidden="1">
+      <c r="N60" s="77"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="31"/>
       <c r="B61" s="23"/>
       <c r="C61" s="24"/>
@@ -3927,12 +4350,12 @@
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
       <c r="J61" s="24"/>
-      <c r="K61" s="37"/>
+      <c r="K61" s="39"/>
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
-      <c r="N61" s="78"/>
-    </row>
-    <row r="62" spans="1:14" hidden="1">
+      <c r="N61" s="77"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="31"/>
       <c r="B62" s="23"/>
       <c r="C62" s="24"/>
@@ -3943,76 +4366,76 @@
       <c r="H62" s="26"/>
       <c r="I62" s="26"/>
       <c r="J62" s="24"/>
-      <c r="K62" s="39"/>
+      <c r="K62" s="43"/>
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
-      <c r="N62" s="78"/>
-    </row>
-    <row r="63" spans="1:14" hidden="1">
+      <c r="N62" s="77"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="31"/>
       <c r="B63" s="23"/>
       <c r="C63" s="24"/>
       <c r="D63" s="25"/>
       <c r="E63" s="35"/>
-      <c r="F63" s="26"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="37"/>
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="43"/>
+      <c r="K63" s="39"/>
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
-      <c r="N63" s="78"/>
-    </row>
-    <row r="64" spans="1:14" hidden="1">
+      <c r="N63" s="77"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="31"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
       <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="37"/>
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
       <c r="J64" s="24"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="78"/>
-    </row>
-    <row r="65" spans="1:14" hidden="1">
-      <c r="A65" s="31"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="78"/>
-    </row>
-    <row r="66" spans="1:14" hidden="1">
-      <c r="A66" s="33"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="63"/>
-    </row>
-    <row r="67" spans="1:14" hidden="1">
+      <c r="K64" s="26"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="77"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="33"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="63"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="31"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="77"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="31"/>
       <c r="B67" s="23"/>
       <c r="C67" s="24"/>
@@ -4026,9 +4449,9 @@
       <c r="K67" s="39"/>
       <c r="L67" s="39"/>
       <c r="M67" s="39"/>
-      <c r="N67" s="78"/>
-    </row>
-    <row r="68" spans="1:14" hidden="1">
+      <c r="N67" s="77"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="31"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -4042,9 +4465,9 @@
       <c r="K68" s="39"/>
       <c r="L68" s="39"/>
       <c r="M68" s="39"/>
-      <c r="N68" s="78"/>
-    </row>
-    <row r="69" spans="1:14" hidden="1">
+      <c r="N68" s="77"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="31"/>
       <c r="B69" s="23"/>
       <c r="C69" s="24"/>
@@ -4058,9 +4481,9 @@
       <c r="K69" s="39"/>
       <c r="L69" s="39"/>
       <c r="M69" s="39"/>
-      <c r="N69" s="78"/>
-    </row>
-    <row r="70" spans="1:14" hidden="1">
+      <c r="N69" s="77"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="31"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -4074,9 +4497,9 @@
       <c r="K70" s="39"/>
       <c r="L70" s="39"/>
       <c r="M70" s="39"/>
-      <c r="N70" s="78"/>
-    </row>
-    <row r="71" spans="1:14" hidden="1">
+      <c r="N70" s="77"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="31"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
@@ -4090,9 +4513,9 @@
       <c r="K71" s="39"/>
       <c r="L71" s="39"/>
       <c r="M71" s="39"/>
-      <c r="N71" s="78"/>
-    </row>
-    <row r="72" spans="1:14" hidden="1">
+      <c r="N71" s="77"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="31"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
@@ -4106,9 +4529,9 @@
       <c r="K72" s="39"/>
       <c r="L72" s="39"/>
       <c r="M72" s="39"/>
-      <c r="N72" s="78"/>
-    </row>
-    <row r="73" spans="1:14" hidden="1">
+      <c r="N72" s="77"/>
+    </row>
+    <row r="73" spans="1:14" ht="120.75" customHeight="1">
       <c r="A73" s="31"/>
       <c r="B73" s="23"/>
       <c r="C73" s="24"/>
@@ -4119,12 +4542,12 @@
       <c r="H73" s="42"/>
       <c r="I73" s="42"/>
       <c r="J73" s="24"/>
-      <c r="K73" s="39"/>
+      <c r="K73" s="44"/>
       <c r="L73" s="39"/>
       <c r="M73" s="39"/>
-      <c r="N73" s="78"/>
-    </row>
-    <row r="74" spans="1:14" hidden="1">
+      <c r="N73" s="77"/>
+    </row>
+    <row r="74" spans="1:14" ht="21.75" customHeight="1">
       <c r="A74" s="31"/>
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
@@ -4135,58 +4558,64 @@
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
       <c r="J74" s="24"/>
-      <c r="K74" s="44"/>
+      <c r="K74" s="39"/>
       <c r="L74" s="39"/>
       <c r="M74" s="39"/>
-      <c r="N74" s="78"/>
-    </row>
-    <row r="75" spans="1:14" hidden="1">
+      <c r="N74" s="77"/>
+    </row>
+    <row r="75" spans="1:14" ht="54.75" customHeight="1">
       <c r="A75" s="31"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="37"/>
+      <c r="C75" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="H75" s="42"/>
       <c r="I75" s="42"/>
       <c r="J75" s="24"/>
       <c r="K75" s="39"/>
       <c r="L75" s="39"/>
       <c r="M75" s="39"/>
-      <c r="N75" s="78"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="31"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
+      <c r="N75" s="77"/>
+    </row>
+    <row r="76" spans="1:14" ht="88.5" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="71"/>
       <c r="N76" s="78"/>
-    </row>
-    <row r="77" spans="1:14" ht="13.5" thickBot="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="79"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -4209,20 +4638,18 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="H34:I34"/>
   </mergeCells>
-  <conditionalFormatting sqref="J35:J51 J57:J64 J67:J76 J16:J32 J13 L10 L5:L6 J5:J10">
+  <conditionalFormatting sqref="J34:J50 J56:J63 J66:J75 J16:J32 J13 L10 L5:L6 J5:J10">
     <cfRule type="containsText" dxfId="20" priority="97" stopIfTrue="1" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",J5)))</formula>
     </cfRule>
@@ -4233,7 +4660,7 @@
       <formula>NOT(ISERROR(SEARCH("Passed",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33 L33 J65 L65 J77 L77 J52:J55 L52:L55 L18 L7:L9 L11:L15 J11:J12 J14:J15">
+  <conditionalFormatting sqref="J33 L33 J64 L64 J76 L76 J51:J54 L51:L54 L18 L7:L9 L11:L15 J11:J12 J14:J15">
     <cfRule type="containsText" dxfId="17" priority="91" stopIfTrue="1" operator="containsText" text="Hold">
       <formula>NOT(ISERROR(SEARCH("Hold",J7)))</formula>
     </cfRule>
@@ -4254,7 +4681,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L33 J35:J55 L52:L55 J57:J65 L65 J67:J77 L77 L18 L5:L15 J5:J33" xr:uid="{8FF1A41D-399E-4AD7-AF7D-519FA4DAA97A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L33 J34:J54 L51:L54 J56:J64 L64 J66:J76 L76 L18 L5:L15 J5:J33" xr:uid="{8FF1A41D-399E-4AD7-AF7D-519FA4DAA97A}">
       <formula1>"Passed,Failed,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4312,41 +4739,41 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="17"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="106"/>
+      <c r="B2" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101"/>
     </row>
     <row r="3" spans="1:17" ht="51">
       <c r="A3" s="19"/>
@@ -4381,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>32</v>
@@ -4393,31 +4820,31 @@
     <row r="4" spans="1:17" ht="243" thickBot="1">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="24"/>
@@ -4428,40 +4855,40 @@
     <row r="5" spans="1:17" ht="153">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="N5" s="28"/>
     </row>
@@ -4505,902 +4932,909 @@
     <col min="1" max="1" width="41.42578125" style="66" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="66" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="87" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
     <col min="6" max="6" width="14.42578125" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
+      <c r="A1" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" s="69" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>82</v>
+      <c r="D2" s="91" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="124"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="114"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A4" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>77</v>
+      <c r="A4" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>69</v>
+      <c r="A5" s="123"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>77</v>
+      <c r="A6" s="123"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>77</v>
+      <c r="A7" s="123"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>77</v>
+      <c r="A8" s="123"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>77</v>
+      <c r="A9" s="123"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>77</v>
+      <c r="A10" s="123"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>77</v>
+      <c r="A11" s="123"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>69</v>
+      <c r="A12" s="123"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A13" s="118"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>77</v>
+      <c r="A13" s="123"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" s="70" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>77</v>
+        <v>147</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1">
       <c r="A15" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>69</v>
+        <v>149</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1">
       <c r="A16" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>69</v>
+        <v>152</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A17" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>69</v>
+      <c r="A17" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A18" s="120"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>69</v>
+      <c r="A18" s="116"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A19" s="120"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="85" t="s">
-        <v>69</v>
+      <c r="A19" s="116"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>69</v>
+      <c r="A20" s="116"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A21" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>69</v>
+      <c r="A21" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A22" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>69</v>
+      <c r="A22" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>69</v>
+      <c r="A23" s="116"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>69</v>
+      <c r="A24" s="116"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A25" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="83" t="s">
+      <c r="A25" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A26" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>69</v>
+      <c r="A26" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A27" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>69</v>
+      <c r="A27" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A28" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A29" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A30" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A31" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.95" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A29" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A30" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A31" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="119" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A32" s="120"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="33" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A33" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="124"/>
+      <c r="A33" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="114"/>
     </row>
     <row r="34" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A34" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="85" t="s">
-        <v>69</v>
+      <c r="A34" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A35" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="119" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>69</v>
+      <c r="A35" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>69</v>
+      <c r="A36" s="116"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A37" s="120"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>69</v>
+      <c r="A37" s="116"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A38" s="120"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>69</v>
+      <c r="A38" s="116"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A39" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>69</v>
+      <c r="A39" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A40" s="120"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="85" t="s">
-        <v>69</v>
+      <c r="A40" s="116"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A41" s="120"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="85" t="s">
-        <v>69</v>
+      <c r="A41" s="116"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A42" s="120"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="85" t="s">
-        <v>69</v>
+      <c r="A42" s="116"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A43" s="120" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>69</v>
+      <c r="A43" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A44" s="120"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>69</v>
+      <c r="A44" s="116"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A45" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="85" t="s">
-        <v>69</v>
+      <c r="A45" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A46" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="85" t="s">
-        <v>69</v>
+      <c r="A46" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A47" s="120"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>69</v>
+      <c r="A47" s="116"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A48" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>69</v>
+      <c r="A48" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A49" s="120"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>69</v>
+      <c r="A49" s="116"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A50" s="120"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>77</v>
+      <c r="A50" s="116"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A51" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>69</v>
+      <c r="A51" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A52" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>69</v>
+      <c r="A52" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A53" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>77</v>
+      <c r="A53" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A54" s="120"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>77</v>
+      <c r="A54" s="116"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A55" s="123" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="124"/>
+      <c r="A55" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="114"/>
     </row>
     <row r="56" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A56" s="120" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>69</v>
+      <c r="A56" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A57" s="120"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>69</v>
+      <c r="A57" s="116"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A58" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>69</v>
+      <c r="A58" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A59" s="120"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>69</v>
+      <c r="A59" s="116"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A60" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>69</v>
+      <c r="A60" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A61" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="119" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="85" t="s">
-        <v>69</v>
+      <c r="A61" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A62" s="120"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="85" t="s">
-        <v>69</v>
+      <c r="A62" s="116"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A63" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="85" t="s">
-        <v>69</v>
+      <c r="A63" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A64" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>77</v>
+      <c r="A64" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A65" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="124"/>
+      <c r="A65" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="114"/>
     </row>
     <row r="66" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A66" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>69</v>
+      <c r="A66" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A67" s="120" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="D67" s="85" t="s">
-        <v>69</v>
+      <c r="A67" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A68" s="120"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" s="85" t="s">
-        <v>69</v>
+      <c r="A68" s="116"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A69" s="120"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" s="85" t="s">
-        <v>69</v>
+      <c r="A69" s="116"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A70" s="120"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="85" t="s">
-        <v>69</v>
+      <c r="A70" s="116"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A71" s="120"/>
-      <c r="B71" s="119"/>
-      <c r="C71" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="85" t="s">
-        <v>69</v>
+      <c r="A71" s="116"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A72" s="120"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" s="85" t="s">
-        <v>69</v>
+      <c r="A72" s="116"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A73" s="120"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="85" t="s">
-        <v>69</v>
+      <c r="A73" s="116"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.95" hidden="1" customHeight="1">
-      <c r="A74" s="120"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="85" t="s">
-        <v>69</v>
+      <c r="A74" s="116"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="84" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" hidden="1" customHeight="1" thickBot="1">
-      <c r="A75" s="120"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="87" t="s">
-        <v>69</v>
+      <c r="A75" s="116"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" hidden="1" customHeight="1" thickBot="1">
-      <c r="A76" s="122"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="89" t="s">
-        <v>77</v>
+      <c r="A76" s="118"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="88" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B67:B76"/>
     <mergeCell ref="A67:A76"/>
@@ -5417,18 +5851,11 @@
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <conditionalFormatting sqref="D56:D63 D66:D75 D51 D34:D49 D15:D31 D12 D4:D9">
     <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="Hold">
@@ -5488,16 +5915,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14"/>
@@ -5570,14 +5997,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="B2" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
+      <c r="B2" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="3"/>
@@ -5589,22 +6016,22 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="15">
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5696,6 +6123,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100854415CEDA0C50498A1DC5EFED353611" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b151a0e270bcbf462cbe1242630070f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="952a6df7-b138-4f89-9bc4-e7a874ea3254" xmlns:ns3="8447285f-db87-42c9-968f-fa00264c9f2f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83b571372b95f26fd24865e0a5c07880" ns2:_="" ns3:_="">
     <xsd:import namespace="952a6df7-b138-4f89-9bc4-e7a874ea3254"/>
@@ -5865,19 +6301,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56ACF38-1C4A-4E63-B3D1-02EDC7D3CCC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059D7527-7986-4F23-B94A-469BF4C793AC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059D7527-7986-4F23-B94A-469BF4C793AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56ACF38-1C4A-4E63-B3D1-02EDC7D3CCC8}"/>
 </file>